--- a/public/export.xlsx
+++ b/public/export.xlsx
@@ -1,27 +1,525 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Criterio" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>creadoAl</t>
+  </si>
+  <si>
+    <t>modificadoAl</t>
+  </si>
+  <si>
+    <t>borradoAl</t>
+  </si>
+  <si>
+    <t>Paquetes o sobres de sales de rehidratación oral  o sobres de vida</t>
+  </si>
+  <si>
+    <t>2015-07-15 16:52:24</t>
+  </si>
+  <si>
+    <t>Gotas de sulfato ferroso o micronutrientes para niños</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albendazol o Mebendazol </t>
+  </si>
+  <si>
+    <t>Eritromicina o Ampicilina o Penicilina Benzatínica</t>
+  </si>
+  <si>
+    <t>Báscula pediátrica o báscula de piso  tipo Salter (Báscula de calzón)</t>
+  </si>
+  <si>
+    <t>Báscula de pie para niños o báscula tipo Salter (Báscula de calzón) o báscula con estadímetro o báscula de piso</t>
+  </si>
+  <si>
+    <t>Estadímetro o báscula con estadímetro</t>
+  </si>
+  <si>
+    <t>Estetoscopio (PROPIEDAD DE LA UNIDAD)</t>
+  </si>
+  <si>
+    <t>Termometro oral o axilar</t>
+  </si>
+  <si>
+    <t>Cartilla Nacional de Salud para niños de 0 a 9 años, o Cartilla Nacional de Vacunación o Tarjeta de Crecimiento y desarrollo</t>
+  </si>
+  <si>
+    <t>Pentavalente o DPT+ Hib+ Hepb</t>
+  </si>
+  <si>
+    <t>Rotavirus</t>
+  </si>
+  <si>
+    <t>Neomocócica conjugado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacuna SPR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multivitamínico o Hierro + Ácido fólico </t>
+  </si>
+  <si>
+    <t>Vacuna antitetánica o toxoide tetánico diftérico (SOLAMENTE UNIDADES QUE TIENEN REFRIGERADORA FUNCIONANDO Y GUARDAN VACUNAS POR MAS DE 7 DIAS )</t>
+  </si>
+  <si>
+    <t>Paletas (Espátulas)  de Ayre (para examen de citología cervical) o hisopos</t>
+  </si>
+  <si>
+    <t>Láminas porta objetos</t>
+  </si>
+  <si>
+    <t>Nitrofurantoina tabletas o suspensión</t>
+  </si>
+  <si>
+    <t>Eritromicina, Amoxicilina o Penicilina Benzatinica</t>
+  </si>
+  <si>
+    <t>Báscula o balanza de pie (Báscula de piso)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carnet perinatal o tarjeta</t>
+  </si>
+  <si>
+    <t>Estadímetro</t>
+  </si>
+  <si>
+    <t>Mesa para exploración ginecológica (APLICA SOLO EN CARAVANAS TIPO 1.2. Y 3)</t>
+  </si>
+  <si>
+    <t>Cinta obstétrica del CLAP o cinta métrica</t>
+  </si>
+  <si>
+    <t>Lámpara de cuello de cisne (lámpara de chicote) o lámpara de mano</t>
+  </si>
+  <si>
+    <t>Esfigmomanómetro (Baumanómetro)</t>
+  </si>
+  <si>
+    <t>Set para inserción de DIU(espéculo vaginal, pinza de pozzio o tentáculo, pinza Forester o de anillos)</t>
+  </si>
+  <si>
+    <t>Historia clínica materno perinatal</t>
+  </si>
+  <si>
+    <t>Condón masculino</t>
+  </si>
+  <si>
+    <t>Cualquier tipo de hormonal oral</t>
+  </si>
+  <si>
+    <t>Cualquier tipo de hormonal inyectable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesa para exploración ginecológica </t>
+  </si>
+  <si>
+    <t>Carnet perinatal o tarjeta</t>
+  </si>
+  <si>
+    <t>Penicilina cristalina o  ampicilina o Amoxicilina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lactato de Ringer o Solución Hartman o Solución salina </t>
+  </si>
+  <si>
+    <t>Estetoscopio pediátrico (PROPIEDAD DE LA UNIDAD)</t>
+  </si>
+  <si>
+    <t>Esfigmiomanómetro pediátrico (Baumanómetro)</t>
+  </si>
+  <si>
+    <t>Negatoscopio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cefalexina </t>
+  </si>
+  <si>
+    <t>Kit para pruebas rápidas de sífilis o Microscopio de campos oscuros, o Equipo para inmunoensayos de enzimas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kit para pruebas rápidas de VIH/SIDA o Microscopio Fluorescente </t>
+  </si>
+  <si>
+    <t>Tiras reactivas para proteina en orina o Equipo para uroanálisis</t>
+  </si>
+  <si>
+    <t>Tiras reactivas para glucosa en sangre o Glucómentro</t>
+  </si>
+  <si>
+    <t>Hemocue o Contador automático de células</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microcubetas </t>
+  </si>
+  <si>
+    <t>Kit para pruebas de embarazo</t>
+  </si>
+  <si>
+    <t>Reactivo para sífilis</t>
+  </si>
+  <si>
+    <t>Reactivo para VIH/SIDA</t>
+  </si>
+  <si>
+    <t>Anticuerpo de tipo de sangre</t>
+  </si>
+  <si>
+    <t>Anticuerpo de factor RH</t>
+  </si>
+  <si>
+    <t>Set para inserción de DIU (espéculo vaginal, pinza de pozzio o tentáculo, pinza Forester o de anillos)</t>
+  </si>
+  <si>
+    <t>Aparato para medición de presión arterial</t>
+  </si>
+  <si>
+    <t>Doppler Portátil o estetoscopio Pinard</t>
+  </si>
+  <si>
+    <t>Autoclave o esterilizador de calor seco</t>
+  </si>
+  <si>
+    <t>Tanque de oxígeno</t>
+  </si>
+  <si>
+    <t>Bolsa de reanimación resucitación para adulto</t>
+  </si>
+  <si>
+    <t>Bolsa de resucitación neonatal ó Bolsa valvula mascarilla ó AMBÚ, ó resusitador, o reanimador neonatal</t>
+  </si>
+  <si>
+    <t>Laringoscopio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipo para AMEU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maleato de ergonovina o Ergometrina o Oxitocina </t>
+  </si>
+  <si>
+    <t>Dexametazona o Betametasona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gentamicina ampoyetas </t>
+  </si>
+  <si>
+    <t>Sulfato de magnésio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidralazina ampoyetas </t>
+  </si>
+  <si>
+    <t>Equipo para suero con macrogotero y microgotero</t>
+  </si>
+  <si>
+    <t>Campos estériles o cobija para el recién nacido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonda nasogástrica </t>
+  </si>
+  <si>
+    <t>Cateter intravenoso estéril No. 18</t>
+  </si>
+  <si>
+    <t>Pinza metálica o cinta umbilical o pinza plástica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ergonovina maleato  o Ergometrina  o Oxitocina </t>
+  </si>
+  <si>
+    <t>Iodopovidona o Isodine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeringa con Aguja Montada (Jeringa insulina) </t>
+  </si>
+  <si>
+    <t>Lidocaína sin Epinefrina (Lidocaina Simple)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bromuro de hidroscina o Butilioscina </t>
+  </si>
+  <si>
+    <t>Ringer Lactato o Hartman o solución salina</t>
+  </si>
+  <si>
+    <t>Gotas de cloramfenicol oftálmicas o de nitrato de plata al 1% o oxitetraciclina oftálmica</t>
+  </si>
+  <si>
+    <t>Vitamina K  (FITOMENADIONA)</t>
+  </si>
+  <si>
+    <t>Dispositivo intrauterino</t>
+  </si>
+  <si>
+    <t>Penicilina cristalina o Ampicilina o Amoxicillina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrofurantoina </t>
+  </si>
+  <si>
+    <t>Microscopio óptico</t>
+  </si>
+  <si>
+    <t>Equipo para uroanálisis</t>
+  </si>
+  <si>
+    <t>Glucómetro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contador automático de células </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Equipo para anestesia (De bloqueo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kit para cesáreas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Furosemida</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Diazepam o Midazolam Clorhidrato </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sevofluran 100% Fco </t>
+  </si>
+  <si>
+    <t>Sulfato de Amikacina</t>
+  </si>
+  <si>
+    <t>Ceftriaxona</t>
+  </si>
+  <si>
+    <t>Cloranfenicol  o Metronidazol</t>
+  </si>
+  <si>
+    <t>Hidralazina o Hidralazina clorhidrato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nifedipina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ergonovina maleato o Ergometrina o Oxytocina </t>
+  </si>
+  <si>
+    <t>Gotas de cloramfenicol oftálmica o nitrato de plata al 1% o Oxitetraciclina oftálmica</t>
+  </si>
+  <si>
+    <t>¿Este establecimiento cuenta con doctor capacitado para realizar esterilización femenina / ligadura de trompas?</t>
+  </si>
+  <si>
+    <t>¿Este establecimiento cuenta con doctor capacitado para realizar esterilización masculina / vasectomía?</t>
+  </si>
+  <si>
+    <t>Evidencia de 5 o más CPN en último embarazo</t>
+  </si>
+  <si>
+    <t>2015-05-30 17:39:11</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:32:48</t>
+  </si>
+  <si>
+    <t>CPN realizado por Mèdico, enfermera o COCs</t>
+  </si>
+  <si>
+    <t>2015-06-01 15:34:33</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:33:30</t>
+  </si>
+  <si>
+    <t>Presión arterial tomada en cada control</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:34:06</t>
+  </si>
+  <si>
+    <t>Pulso tomado en cada control</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:34:39</t>
+  </si>
+  <si>
+    <t>Temperatura tomada en cada control</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:35:03</t>
+  </si>
+  <si>
+    <t>Se documentó la ganancia de peso en cada control</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:35:26</t>
+  </si>
+  <si>
+    <t>Altura de fondo uterino registrada en cada control</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:35:50</t>
+  </si>
+  <si>
+    <t>Se revisaron reflejos y edemas en todos los controles.</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:36:17</t>
+  </si>
+  <si>
+    <t>Medición de frecuencia cardiaca en todos los controles  mayores a 20 semanas de gestación</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:36:48</t>
+  </si>
+  <si>
+    <t>Determinación de movimientos fetales en todos los  controles mayores a 20 semanas de gestación</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:37:09</t>
+  </si>
+  <si>
+    <t>Determinación del tipo de sangre en al menos un control</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:37:31</t>
+  </si>
+  <si>
+    <t>Determinación de glicemia en al menos un control</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:37:57</t>
+  </si>
+  <si>
+    <t>Determinación de hemoglobina en al menos un control</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:38:21</t>
+  </si>
+  <si>
+    <t>Determinación del status VIH en al menos un control</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:38:41</t>
+  </si>
+  <si>
+    <t>Determinación del nivel de plaquetas en al menos un control</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:39:23</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:39:38</t>
+  </si>
+  <si>
+    <t>control Determinación de ácido úrico en al menos un control</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:40:10</t>
+  </si>
+  <si>
+    <t>Determinación de VDRL en al menos un control</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:40:29</t>
+  </si>
+  <si>
+    <t>Realización de examen general de orina en al menos un control</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:40:53</t>
+  </si>
+  <si>
+    <t>Existen 4 registros de control en la primera hora?</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:41:26</t>
+  </si>
+  <si>
+    <t>Existen 2 registros de control en la segunda hora?</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:42:04</t>
+  </si>
+  <si>
+    <t>Se tomó pulso en cada evaluación</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:42:24</t>
+  </si>
+  <si>
+    <t>Se tomó frecuencia respiratoria en cada evaluación?</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:43:01</t>
+  </si>
+  <si>
+    <t>Presión arterial en cada evaluación?</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:43:24</t>
+  </si>
+  <si>
+    <t>Revisión de involución uterina en cada evaluación?</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:43:54</t>
+  </si>
+  <si>
+    <t>Revisión por hemorragia ó loquios en cada evaluación?</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:44:18</t>
+  </si>
+  <si>
+    <t>Se tomó temperatura en cada evaluación?</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:44:42</t>
+  </si>
+  <si>
+    <t>Se registró la diurésis espontánea durante las primeras 2  horas post-parto?</t>
+  </si>
+  <si>
+    <t>2015-06-15 15:45:00</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -29,29 +527,28 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -341,13 +838,1236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="169.815674" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" t="s">
+        <v>107</v>
+      </c>
+      <c r="D102" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" t="s">
+        <v>110</v>
+      </c>
+      <c r="D103" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>105</v>
+      </c>
+      <c r="B104" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" t="s">
+        <v>113</v>
+      </c>
+      <c r="D104" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s">
+        <v>114</v>
+      </c>
+      <c r="C105" t="s">
+        <v>115</v>
+      </c>
+      <c r="D105" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>116</v>
+      </c>
+      <c r="C106" t="s">
+        <v>117</v>
+      </c>
+      <c r="D106" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>108</v>
+      </c>
+      <c r="B107" t="s">
+        <v>118</v>
+      </c>
+      <c r="C107" t="s">
+        <v>119</v>
+      </c>
+      <c r="D107" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>109</v>
+      </c>
+      <c r="B108" t="s">
+        <v>120</v>
+      </c>
+      <c r="C108" t="s">
+        <v>121</v>
+      </c>
+      <c r="D108" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
+        <v>122</v>
+      </c>
+      <c r="C109" t="s">
+        <v>123</v>
+      </c>
+      <c r="D109" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>124</v>
+      </c>
+      <c r="C110" t="s">
+        <v>125</v>
+      </c>
+      <c r="D110" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>126</v>
+      </c>
+      <c r="C111" t="s">
+        <v>127</v>
+      </c>
+      <c r="D111" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>113</v>
+      </c>
+      <c r="B112" t="s">
+        <v>128</v>
+      </c>
+      <c r="C112" t="s">
+        <v>129</v>
+      </c>
+      <c r="D112" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>114</v>
+      </c>
+      <c r="B113" t="s">
+        <v>130</v>
+      </c>
+      <c r="C113" t="s">
+        <v>131</v>
+      </c>
+      <c r="D113" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>132</v>
+      </c>
+      <c r="C114" t="s">
+        <v>133</v>
+      </c>
+      <c r="D114" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>116</v>
+      </c>
+      <c r="B115" t="s">
+        <v>134</v>
+      </c>
+      <c r="C115" t="s">
+        <v>135</v>
+      </c>
+      <c r="D115" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s">
+        <v>136</v>
+      </c>
+      <c r="C116" t="s">
+        <v>137</v>
+      </c>
+      <c r="D116" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>118</v>
+      </c>
+      <c r="B117" t="s">
+        <v>139</v>
+      </c>
+      <c r="C117" t="s">
+        <v>140</v>
+      </c>
+      <c r="D117" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>119</v>
+      </c>
+      <c r="B118" t="s">
+        <v>141</v>
+      </c>
+      <c r="C118" t="s">
+        <v>142</v>
+      </c>
+      <c r="D118" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>120</v>
+      </c>
+      <c r="B119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C119" t="s">
+        <v>144</v>
+      </c>
+      <c r="D119" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>121</v>
+      </c>
+      <c r="B120" t="s">
+        <v>145</v>
+      </c>
+      <c r="C120" t="s">
+        <v>146</v>
+      </c>
+      <c r="D120" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>122</v>
+      </c>
+      <c r="B121" t="s">
+        <v>147</v>
+      </c>
+      <c r="C121" t="s">
+        <v>148</v>
+      </c>
+      <c r="D121" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>123</v>
+      </c>
+      <c r="B122" t="s">
+        <v>149</v>
+      </c>
+      <c r="C122" t="s">
+        <v>150</v>
+      </c>
+      <c r="D122" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>124</v>
+      </c>
+      <c r="B123" t="s">
+        <v>151</v>
+      </c>
+      <c r="C123" t="s">
+        <v>152</v>
+      </c>
+      <c r="D123" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>125</v>
+      </c>
+      <c r="B124" t="s">
+        <v>153</v>
+      </c>
+      <c r="C124" t="s">
+        <v>154</v>
+      </c>
+      <c r="D124" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>126</v>
+      </c>
+      <c r="B125" t="s">
+        <v>155</v>
+      </c>
+      <c r="C125" t="s">
+        <v>156</v>
+      </c>
+      <c r="D125" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>127</v>
+      </c>
+      <c r="B126" t="s">
+        <v>157</v>
+      </c>
+      <c r="C126" t="s">
+        <v>158</v>
+      </c>
+      <c r="D126" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>128</v>
+      </c>
+      <c r="B127" t="s">
+        <v>159</v>
+      </c>
+      <c r="C127" t="s">
+        <v>160</v>
+      </c>
+      <c r="D127" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>129</v>
+      </c>
+      <c r="B128" t="s">
+        <v>161</v>
+      </c>
+      <c r="C128" t="s">
+        <v>162</v>
+      </c>
+      <c r="D128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="" right="" top="" bottom="" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>